--- a/biology/Médecine/Glucide/Glucide.xlsx
+++ b/biology/Médecine/Glucide/Glucide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glucides sont définis par l'Union internationale de chimie pure et appliquée (UICPA) comme une classe de composés organiques contenant un groupe carbonyle (aldéhyde ou cétone) et au moins deux groupes hydroxyle (-OH). On inclut dans cette classe les substances issues des monosaccharides par réduction du groupe carbonyle, par oxydation d'au moins un groupe à l'extrémité de la chaîne en acide carboxylique ou par remplacement d'un ou plusieurs groupes hydroxyle par un atome d'hydrogène, un groupe amino, un groupe thiol ou par tout atome similaire.
 Les glucides ont été initialement (et fautivement) nommés hydrates de carbone (ou carbohydrates), car on avait observé que leur composition élémentaire pourrait correspondre à un modèle Cn(H2O)p. Toutefois, le chimiste allemand Emil Fischer, qui obtint le prix Nobel de chimie en 1902, a découvert que ces composés ne sont pas des hydrates [parce que H2O ne s'y retrouve pas sous cette forme, avec un O et deux H qui lui sont liés, comme dans la molécule de glucose (ci-contre)], d'où un nécessaire changement de nom que n'ont pas encore complètement fait les anglophones, qui utilisent encore le terme « carbohydrates », ou les germanophones, qui parlent de « Kohlenhydrate ».
@@ -514,7 +526,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les glucides sont habituellement répartis entre oses (monosaccharides tels le glucose, le galactose ou le fructose) et osides, qui sont des polymères d'oses (oligosaccharides et polysaccharides). Les disaccharides (diholosides), tels le saccharose, le lactose ou le maltose font partie de cette dernière catégorie. Mais seuls les monosaccharides et les disaccharides ont un pouvoir sucrant. Les polysaccharides, comme l'amidon, sont insipides.
 Les oses (sucres simples) sont des molécules simples, non hydrolysables, formant des cristaux incolores.
@@ -559,27 +573,187 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oses simples
-Les oses possèdent tous un groupe carbonyle mais celui-ci peut apparaître sous une forme « équivalente » ayant le même degré d'oxydation comme un acétal ou un hémiacétal, spécialement dans les formes cycliques. Les oses possédant un groupe aldéhyde, masqué ou non, sont nommés « aldoses ». Pour un groupe cétone, ils sont appelés « cétoses ».
+          <t>Oses simples</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les oses possèdent tous un groupe carbonyle mais celui-ci peut apparaître sous une forme « équivalente » ayant le même degré d'oxydation comme un acétal ou un hémiacétal, spécialement dans les formes cycliques. Les oses possédant un groupe aldéhyde, masqué ou non, sont nommés « aldoses ». Pour un groupe cétone, ils sont appelés « cétoses ».
 Ils sont caractérisés par leur nombre d'atomes de carbone, toujours supérieur à trois :
 les trioses possèdent 3 carbones : dihydroxyacétone, glycéraldéhyde ;
 les tétroses possèdent 4 carbones : érythrose, thréose, érythrulose ;
 les pentoses possèdent 5 carbones : ribose, arabinose, xylose, lyxose, ribulose, xylulose ;
 les hexoses possèdent 6 carbones : allose, altrose, glucose, mannose, gulose, idose, galactose, talose, psicose, fructose, sorbose, tagatose ;
 les heptoses possèdent 7 carbones : sédoheptulose ;
-les octoses possèdent 8 carbones : heptahydroxyoctanal.
-Représentation
-Les oses sont présents sous forme acyclique et cyclique (cycle de cinq ou six atomes), lesquelles sont détaillées ci-dessous.
-Représentation linéaire : modèle de Fischer
-Tous les oses possèdent un pouvoir rotatoire du fait de la présence d'un carbone asymétrique, les oses sont dits chiraux sauf la dihydroxyacétone.
+les octoses possèdent 8 carbones : heptahydroxyoctanal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Oses simples</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Représentation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oses sont présents sous forme acyclique et cyclique (cycle de cinq ou six atomes), lesquelles sont détaillées ci-dessous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oses simples</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Représentation linéaire : modèle de Fischer</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les oses possèdent un pouvoir rotatoire du fait de la présence d'un carbone asymétrique, les oses sont dits chiraux sauf la dihydroxyacétone.
 Deux énantiomères (antipodes optiques) ont les mêmes propriétés à l'exception d'une seule : leur pouvoir rotatoire opposé. La figure 1 représente les deux énantiomères du glucose, la forme D-glucose est la forme naturelle. Il est à noter que dans la représentation de Fischer, par convention, le carbone le plus oxydé est placé en haut, ce qui permet de définir sans ambiguïté le sens gauche/droite des substituants de la chaîne carbonée.
 Dans la forme D, le groupe alcool (-OH) porté par le carbone n-1 est à droite (en représentation de Fischer).
 Dans la forme L, le groupe alcool porté par le carbone n-1 est à gauche (en représentation de Fischer).
 Il existe aussi des stéréoisomères qui sont des isomères optiques. Tous les énantiomères sont des stéréoisomères.
-Cyclisation
-Pour les sucres, selon qu'un groupe hydroxyle attaque le carbonyle d'un côté ou de l'autre (voir figure), on forme un carbone (généralement) asymétrique appelé « centre anomère ». Le cycle est constitué par cinq (furanose) ou six (pyranose) atomes. Dans une représentation plane avec le groupe -CH2OH au-dessus du plan formé par le cycle, l'anomère est dit « α » si le groupe hydroxyle se trouve derrière le plan, ou « β » s'il se trouve au-dessus du plan. Si la configuration n'est pas connue, on utilise la lettre grecque ξ (xi).
-Représentation cyclique : modèle de Haworth
-Quand on laisse du glucose préalablement cristallisé en solution dans de l'eau, le pouvoir rotatoire passe de +112° à +52,5°.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oses simples</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cyclisation</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les sucres, selon qu'un groupe hydroxyle attaque le carbonyle d'un côté ou de l'autre (voir figure), on forme un carbone (généralement) asymétrique appelé « centre anomère ». Le cycle est constitué par cinq (furanose) ou six (pyranose) atomes. Dans une représentation plane avec le groupe -CH2OH au-dessus du plan formé par le cycle, l'anomère est dit « α » si le groupe hydroxyle se trouve derrière le plan, ou « β » s'il se trouve au-dessus du plan. Si la configuration n'est pas connue, on utilise la lettre grecque ξ (xi).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Oses simples</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Représentation cyclique : modèle de Haworth</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quand on laisse du glucose préalablement cristallisé en solution dans de l'eau, le pouvoir rotatoire passe de +112° à +52,5°.
 Quand on laisse en solution dans l'eau du glucose préalablement cristallisé dans de l'acide acétique, le pouvoir rotatoire passe de +19° à +52,5°.
 Ceci s'explique par le fait que le glucose (linéaire) en solution aqueuse s'équilibre entre deux formes cycliques. Ceci est dû au fait que le groupe aldéhyde du glucose va réagir avec un des groupes alcool (celui du carbone 5). Le glucose devient cyclique, et il dérive du pyrane (ci-contre) d'où il tire le nom « glucopyranose ». Dans cette cyclisation, telle que décrite dans le paragraphe ci-dessus, le groupe alcool peut s'additionner sur le groupe aldéhyde d'un côté ou de l'autre, ce qui provoque l'apparition de deux composés : les anomères α et β.
 Dans le modèle de Haworth, on considère que le cycle est plan avec l'oxygène endocyclique vers le haut et le carbone anomère à sa droite : si le groupe hydroxyle sur le carbone anomère est en dessous du plan du cycle, il est dit α, sinon il est dit β.
@@ -593,26 +767,247 @@
 Les oses se cyclisant sous forme pyranique (pyranose) sont :
 le glucose donnant du glucopyranose ;
 le galactose donnant du galactopyranose ;
-de manière générale, ce sont les aldohexoses.
-Osides
-Les osides sont des polymères d'oses liés par une liaison osidique.
+de manière générale, ce sont les aldohexoses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Osides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les osides sont des polymères d'oses liés par une liaison osidique.
 Ils sont hydrolysables, et aussi appelés « glucides complexes ».
-Terminologie et classification des osides
-Deux formes d'osides sont nommables. D'un côté, dans les oligosaccharides, on retrouve un nombre déterminé de monosaccharides (oses). Pour les nommer, on peut alors employer les termes : « disaccharides » (ex. : saccharose), « trisaccharides » (ex. : raffinose), etc. D'un autre côté, les polysaccharides sont composés d'un nombre indéterminé de monosaccharides. Pour les nommer, on emploie le terme « polysaccharides » (ex. : cellulose).
-Formation de la liaison osidique
-Une liaison osidique est une liaison covalente, produit de la réaction entre le groupe alcool hémiacétalique (-OH formé par le carbone anomère) et une autre molécule (glucidique ou non).
-Diholosides
-Les diholosides ou dissacharides ou encore diosides sont des sucres composés de deux molécules d'ose (dimère).
-Non-réducteurs
-On dit qu'un diholoside est « non réducteur » si le carbone portant le OH hémiacétalique est engagé dans une liaison (le groupe hémiacétalique n'est pas libre). Autrement dit, la liaison finale est du type « oside ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Terminologie et classification des osides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux formes d'osides sont nommables. D'un côté, dans les oligosaccharides, on retrouve un nombre déterminé de monosaccharides (oses). Pour les nommer, on peut alors employer les termes : « disaccharides » (ex. : saccharose), « trisaccharides » (ex. : raffinose), etc. D'un autre côté, les polysaccharides sont composés d'un nombre indéterminé de monosaccharides. Pour les nommer, on emploie le terme « polysaccharides » (ex. : cellulose).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Terminologie et classification des osides</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Formation de la liaison osidique</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une liaison osidique est une liaison covalente, produit de la réaction entre le groupe alcool hémiacétalique (-OH formé par le carbone anomère) et une autre molécule (glucidique ou non).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Diholosides</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diholosides ou dissacharides ou encore diosides sont des sucres composés de deux molécules d'ose (dimère).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Diholosides</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Non-réducteurs</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dit qu'un diholoside est « non réducteur » si le carbone portant le OH hémiacétalique est engagé dans une liaison (le groupe hémiacétalique n'est pas libre). Autrement dit, la liaison finale est du type « oside ».
 Saccharose, aussi appelé « sucrose ».
 C'est un diholoside non réducteur, son nom systématique est l'« α-D-glucopyranosyl(1→2)β-D-fructofuranoside ».
 Il est scindé en deux molécules : le D-glucopyranose et le D-fructofuranose par l'invertase qui est une α-glycosidase, c'est-à-dire une enzyme spécifique de cette liaison glycosidique.
 Tréhalose.
 On le trouve dans les champignons, les bactéries ou encore dans l'hémolymphe des insectes. De nombreux organismes l'accumulent en réponse à un choc thermique. Son nom systématique est l'« α-D-glucopyranosyl(1→1)α-D-glucopyranoside ».
 Il est scindé en deux molécules : deux molécules de D glucopyranose par l'invertine.
-Réducteurs
-Lactose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Diholosides</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Réducteurs</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lactose.
 C'est un diholoside réducteur car son groupe hémiacétalique est libre, c'est le glucide du lait, son nom systématique est le « β-D-galactopyranosyl(1→4)-D-glucopyranose ».
 Il est hydrolysé en deux molécules : le D glucose et le D galactose par une β-galactosidase.
 Maltose.
@@ -623,16 +1018,167 @@
 Il provient de l'hydrolyse partielle de la cellulose et est hydrolysé lui-même par une β-glucosidase.
 Isomaltose.
 C'est un produit de dégradation de l'amidon et du glycogène. Son nom systématique est l'« α-D-glucopyranosyl(1→6)D-glucopyranose ».
-Structure
-Un diholoside est constitué de deux oses liés par liaison osidique et peut être réducteur ou non.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Diholosides</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un diholoside est constitué de deux oses liés par liaison osidique et peut être réducteur ou non.
 Exemples : maltose, saccharose, lactose, cellobiose.
-Triholosides
-Raffinose
-Présent dans la betterave, le raffinose est éliminé lors du raffinage du sucre. C'est un triholoside non réducteur, son nom systématique est l'« α-D-galactopyranosyl(1→6)α-D-glucopyranosyl(1→2)β-D-fructofuranoside ».
-Gentianose
-Le gentianose est présent dans la gentiane.
-Polyholosides
-Un polyholoside est l'association d'un très grand nombre de molécules liées par des liaisons O-glycosidiques. Ses chaînes sont linéaires ou ramifiées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Triholosides</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Raffinose</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présent dans la betterave, le raffinose est éliminé lors du raffinage du sucre. C'est un triholoside non réducteur, son nom systématique est l'« α-D-galactopyranosyl(1→6)α-D-glucopyranosyl(1→2)β-D-fructofuranoside ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Triholosides</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Gentianose</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gentianose est présent dans la gentiane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Polyholosides</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un polyholoside est l'association d'un très grand nombre de molécules liées par des liaisons O-glycosidiques. Ses chaînes sont linéaires ou ramifiées.
 Amidon.
 C'est un polyholoside homogène non réducteur constitué de deux composés :
 l'amylose (hydrosoluble), polymère de glucose lié par une liaison α(1→4) (20 à 30 %) ;
@@ -654,51 +1200,239 @@
 Les dextranes sont produits par certaines bactéries, telles la Leuconostoc mesenteroides, en présence de sucre. De poids moléculaire élevé, ils sont composés d’unités D-glucose reliées par une liaison osidique α(1→6).
 Acide hyaluronique.
 L'acide hyaluronique est un mucopolysaccharide constitué d'acide-β-glucuronique et de N-acétylglucosamine reliés par une liaison β(1→3). C'est un des principaux constituants de la substance fondamentale du tissu conjonctif à laquelle il confère sa viscosité.
-Hétérosides
-Les hétérosides sont des molécules complexes dont l'hydrolyse fournit au moins une molécule d'ose.
-Nucléotides
-Les nucléotides sont constitués d'une base nucléique, d'un ose (ribose, 2-désoxyribose) et d'un groupe phosphate. Ce sont des N-hétérosides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hétérosides</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hétérosides sont des molécules complexes dont l'hydrolyse fournit au moins une molécule d'ose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hétérosides</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Nucléotides</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nucléotides sont constitués d'une base nucléique, d'un ose (ribose, 2-désoxyribose) et d'un groupe phosphate. Ce sont des N-hétérosides.
 Citons l'adénosine monophosphate, et ses dérivés utilisés dans le transport de l'énergie intracellulaire, l'acide ribonucléique (ARN) chargé de guider la synthèse cellulaire des protéines, l'acide désoxyribonucléique (ADN) porteur de l'hérédité.
-ONPG
-L'ortho-nitrophényl-β-galactoside (ONPG) est utilisé en bactériologie systématique, l'orthonitrophényl-β-D-galactopyranoside est hydrolysé par une β-galactosidase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Structure, classification et nomenclature</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hétérosides</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ONPG</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ortho-nitrophényl-β-galactoside (ONPG) est utilisé en bactériologie systématique, l'orthonitrophényl-β-D-galactopyranoside est hydrolysé par une β-galactosidase.
 C'est un O-hétéroside.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Glucide</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glucide</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Propriétés physiques
-Les oses n'absorbent ni dans l'UV, ni dans le visible. Ils sont thermolabiles et caramélisent à haute température.
-Interconversion
-Les sucres présentent un équilibre céto-énolique, causée par l'acidité du proton α. Cette tautomérie est commune aux aldoses et aux cétoses, la forme cétone est nettement majoritaire.
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Propriétés physiques</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oses n'absorbent ni dans l'UV, ni dans le visible. Ils sont thermolabiles et caramélisent à haute température.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Propriétés physico-chimiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Interconversion</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sucres présentent un équilibre céto-énolique, causée par l'acidité du proton α. Cette tautomérie est commune aux aldoses et aux cétoses, la forme cétone est nettement majoritaire.
 Cette tautomérie génère l'interconversion des oses. Par exemple, en milieu fortement basique (une solution d'hydroxyde de sodium), le D-glucose s'isomérise en D-fructose ou s'épimérise en D-mannose, moyennant une forme transitoire cis-ènediol.
-Propriétés réductrices
-Les oses simples et les diholosides ayant un carbone hémiacétalique libre sont réducteurs de par leur groupe aldéhyde. Le groupe aldéhyde est oxydé en groupe acide carboxylique. L'un des groupes alcool primaire peut être oxydé en groupe acide carboxylique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Propriétés physico-chimiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Propriétés réductrices</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les oses simples et les diholosides ayant un carbone hémiacétalique libre sont réducteurs de par leur groupe aldéhyde. Le groupe aldéhyde est oxydé en groupe acide carboxylique. L'un des groupes alcool primaire peut être oxydé en groupe acide carboxylique.
 Les diholosides non réducteurs sont ceux dont aucun carbone hémiacétalique n'est libre, il est mis en jeu dans la liaison osidique.
 Réduction des ions métalliques
 Réduction de l'ion cuivre(II) (Cu2+) en oxyde de cuivre(I) (Cu2O) (liqueur de Fehling). Cette propriété est utilisée dans la méthode de Bertrand pour le dosage des glucides.
@@ -706,11 +1440,88 @@
 Par exemple, le 3,5-dinitrosalicylate (DNS) est réduit en 3-amino-5-nitrosalicylate, composé rouge brun permettant de doser les oses réducteurs par colorimétrie.
 Oxydation par voie enzymatique
 En présence de dioxygène, la glucose oxydase oxyde le glucose en gluconolactone (puis acide gluconique) avec libération d'eau oxygénée. L'oxydation du carbone 1 (portant le groupe pseudo-aldéhydique) conduit au gluconolactone (non réducteur), celle en C6 conduit à l'acide glucuronique (réducteur). Une double oxydation en C1 et C6 conduit à l'acide glucosaccharidique (non réducteur). La glucose oxydase est utilisée pour mesurer la glycémie.
-Hydrolyse de la liaison osidique
-Hydrolyse chimique
-L'hydrolyse chimique n'est pas spécifique, elle conduit à la plus petite sous-unité des glucides : les oses. Elle est réalisée en présence d'acide chlorhydrique.
-Hydrolyse enzymatique
-L'hydrolyse enzymatique, contrairement à l'hydrolyse chimique, est spécifique. Ces enzymes sont des hydrolases.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Propriétés physico-chimiques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hydrolyse de la liaison osidique</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hydrolyse chimique</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hydrolyse chimique n'est pas spécifique, elle conduit à la plus petite sous-unité des glucides : les oses. Elle est réalisée en présence d'acide chlorhydrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Glucide</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glucide</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Propriétés physico-chimiques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hydrolyse de la liaison osidique</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hydrolyse enzymatique</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L'hydrolyse enzymatique, contrairement à l'hydrolyse chimique, est spécifique. Ces enzymes sont des hydrolases.
 La β-glucosidase hydrolyse les liaisons osidiques mettant en jeu un glucose dont l'-OH hémiacétalique est en position β.
 L'α-amylase rompt les liaisons osidiques à l'intérieur de la chaîne d'amylose.
 La β-amylase hydrolyse les liaisons osidiques à partir des extrémités.</t>
